--- a/sampledigital.xlsx
+++ b/sampledigital.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hypex\projects\excel2payments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1A0A514-914E-46D9-8ABF-CB3A188AC127}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C13F1F-1C22-4E24-8743-C5EB383143EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-4380" yWindow="-150" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="samplephysical" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>mom</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>testing@checkbook.io</t>
   </si>
@@ -33,11 +30,26 @@
   <si>
     <t>Test Check</t>
   </si>
+  <si>
+    <t>john.mallard@duckhunt.io</t>
+  </si>
+  <si>
+    <t>Duck Hunt Inc.</t>
+  </si>
+  <si>
+    <t>payments@carport.io</t>
+  </si>
+  <si>
+    <t>Carporters Co.</t>
+  </si>
+  <si>
+    <t>Down Payment</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -882,39 +894,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
       </c>
       <c r="C1">
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>2</v>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{C0B9F804-1E74-4794-B573-E1E5AC55F923}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{B3C7D380-8096-4B08-BC5B-71911DB3D6B7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>